--- a/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\UseCase\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Actor input</t>
   </si>
@@ -63,67 +63,58 @@
     <t>1.&lt;&lt;include&gt;&gt; Comprar carro</t>
   </si>
   <si>
-    <t>2. Mostra opções</t>
-  </si>
-  <si>
-    <t>3. Seleciona Escolher Pacote</t>
-  </si>
-  <si>
-    <t>5. Mostra que pacotes pode escolher</t>
-  </si>
-  <si>
-    <t>6. Escolhe pacote</t>
-  </si>
-  <si>
-    <t>7. Regista pacote escolhido</t>
-  </si>
-  <si>
-    <t>8. Seleciona componentes usados no pacote</t>
-  </si>
-  <si>
-    <t>9. Mostra componentes usados</t>
-  </si>
-  <si>
-    <t>11. Regista e verifica componentes adicionais</t>
-  </si>
-  <si>
-    <t>12. Calcula desconto</t>
-  </si>
-  <si>
-    <t>13. Mostra preço e lista de componentes</t>
-  </si>
-  <si>
-    <t>14. Pergunta se pretende confirmar</t>
-  </si>
-  <si>
-    <t>15. Confirma</t>
-  </si>
-  <si>
-    <t>16. Regista confirmação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17. Insere carro na fila de produção </t>
-  </si>
-  <si>
-    <t>10. Escolhe especificações adicionais e (ou não) altera pacote</t>
-  </si>
-  <si>
-    <t>Alternativa 1 [Componentes inválidos] (passo 10)</t>
-  </si>
-  <si>
-    <t>10.1 Verifica que escolheu componentes incompativeis ou estão em falta</t>
-  </si>
-  <si>
-    <t>10.2 Mostra peças incompativeis e/ou em falta</t>
-  </si>
-  <si>
-    <t>Regressa a 10</t>
-  </si>
-  <si>
-    <t>Alternativa 2 [Não confirma] (passo 15)</t>
-  </si>
-  <si>
-    <t>15.1 Não confirma</t>
+    <t>2. Mostra que pacotes pode escolher</t>
+  </si>
+  <si>
+    <t>3. Escolhe pacote</t>
+  </si>
+  <si>
+    <t>4. Regista pacote escolhido</t>
+  </si>
+  <si>
+    <t>5. Seleciona componentes usados no pacote</t>
+  </si>
+  <si>
+    <t>6. Mostra componentes usados</t>
+  </si>
+  <si>
+    <t>7. Escolhe especificações adicionais e (ou não) altera pacote</t>
+  </si>
+  <si>
+    <t>8. Regista e verifica componentes adicionais</t>
+  </si>
+  <si>
+    <t>9. Calcula desconto</t>
+  </si>
+  <si>
+    <t>Alternativa 1 [Componentes inválidos] (passo 7)</t>
+  </si>
+  <si>
+    <t>7.1 Verifica que escolheu componentes incompativeis ou estão em falta</t>
+  </si>
+  <si>
+    <t>7.2 Mostra peças incompativeis e/ou em falta</t>
+  </si>
+  <si>
+    <t>Regressa a 7</t>
+  </si>
+  <si>
+    <t>10. Mostra preço e lista de componentes e pergunta se quer confirmar</t>
+  </si>
+  <si>
+    <t>11. Confirma</t>
+  </si>
+  <si>
+    <t>12. Regista confirmação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Insere carro na fila de produção </t>
+  </si>
+  <si>
+    <t>Alternativa 2 [Não confirma] (passo 11)</t>
+  </si>
+  <si>
+    <t>11.1 Não confirma</t>
   </si>
 </sst>
 </file>
@@ -374,6 +365,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,13 +390,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D30"/>
+  <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -732,40 +723,40 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -776,180 +767,154 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="15"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
-      <c r="C15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1"/>
+      <c r="B20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="3" t="s">
-        <v>25</v>
+      <c r="B22" s="14"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="16"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" s="18" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="2:4" s="18" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="16"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" s="18" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="16"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="2:4" s="18" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="B6:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
@@ -84,9 +84,6 @@
     <t>8. Regista e verifica componentes adicionais</t>
   </si>
   <si>
-    <t>9. Calcula desconto</t>
-  </si>
-  <si>
     <t>Alternativa 1 [Componentes inválidos] (passo 7)</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>11.1 Não confirma</t>
+  </si>
+  <si>
+    <t>9. Calcula preço</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -826,20 +826,20 @@
       <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -847,37 +847,37 @@
       <c r="B18" s="20"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -887,10 +887,10 @@
     </row>
     <row r="24" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="D24" s="10"/>
     </row>
@@ -898,7 +898,7 @@
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">

--- a/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
@@ -105,9 +105,6 @@
     <t>12. Regista confirmação</t>
   </si>
   <si>
-    <t xml:space="preserve">13. Insere carro na fila de produção </t>
-  </si>
-  <si>
     <t>Alternativa 2 [Não confirma] (passo 11)</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>9. Calcula preço</t>
+  </si>
+  <si>
+    <t>13. Insere carro no sistema</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -826,7 +826,7 @@
       <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -854,7 +854,7 @@
       <c r="B19" s="20"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -887,10 +887,10 @@
     </row>
     <row r="24" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D24" s="10"/>
     </row>

--- a/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E71627-9499-4C01-9CCB-88F7F77E572B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +79,6 @@
     <t>6. Mostra componentes usados</t>
   </si>
   <si>
-    <t>7. Escolhe especificações adicionais e (ou não) altera pacote</t>
-  </si>
-  <si>
     <t>8. Regista e verifica componentes adicionais</t>
   </si>
   <si>
@@ -115,12 +113,15 @@
   </si>
   <si>
     <t>13. Insere carro no sistema</t>
+  </si>
+  <si>
+    <t>7. Escolhe especificações adicionais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -703,11 +704,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -811,7 +812,7 @@
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -819,27 +820,27 @@
       <c r="B14" s="20"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -847,37 +848,37 @@
       <c r="B18" s="20"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -887,10 +888,10 @@
     </row>
     <row r="24" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="D24" s="10"/>
     </row>
@@ -898,7 +899,7 @@
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">

--- a/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E71627-9499-4C01-9CCB-88F7F77E572B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C375F2A-42DB-418F-AC09-96834013BC1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,15 +82,6 @@
     <t>8. Regista e verifica componentes adicionais</t>
   </si>
   <si>
-    <t>Alternativa 1 [Componentes inválidos] (passo 7)</t>
-  </si>
-  <si>
-    <t>7.1 Verifica que escolheu componentes incompativeis ou estão em falta</t>
-  </si>
-  <si>
-    <t>7.2 Mostra peças incompativeis e/ou em falta</t>
-  </si>
-  <si>
     <t>Regressa a 7</t>
   </si>
   <si>
@@ -116,6 +107,15 @@
   </si>
   <si>
     <t>7. Escolhe especificações adicionais</t>
+  </si>
+  <si>
+    <t>Alternativa 1 [Componentes inválidos] (passo 8)</t>
+  </si>
+  <si>
+    <t>8.1 Verifica que escolheu componentes incompativeis ou estão em falta</t>
+  </si>
+  <si>
+    <t>8.2 Indica que há peças incompativeis</t>
   </si>
 </sst>
 </file>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,7 @@
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -827,20 +827,20 @@
       <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -848,37 +848,37 @@
       <c r="B18" s="20"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -888,10 +888,10 @@
     </row>
     <row r="24" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="10"/>
     </row>
@@ -899,7 +899,7 @@
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">

--- a/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C375F2A-42DB-418F-AC09-96834013BC1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Actor input</t>
   </si>
@@ -116,12 +115,15 @@
   </si>
   <si>
     <t>8.2 Indica que há peças incompativeis</t>
+  </si>
+  <si>
+    <t>Regressa a 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -704,11 +706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -899,7 +901,7 @@
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">

--- a/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597BD4F7-8E7E-44FE-97F8-9EF19090B7D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Actor input</t>
   </si>
@@ -93,9 +94,6 @@
     <t>12. Regista confirmação</t>
   </si>
   <si>
-    <t>Alternativa 2 [Não confirma] (passo 11)</t>
-  </si>
-  <si>
     <t>11.1 Não confirma</t>
   </si>
   <si>
@@ -117,13 +115,13 @@
     <t>8.2 Indica que há peças incompativeis</t>
   </si>
   <si>
-    <t>Regressa a 1</t>
+    <t>Exceção 2 [Não confirma] (passo 11)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -353,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -393,6 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -814,7 +813,7 @@
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -829,7 +828,7 @@
       <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -839,72 +838,71 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="6"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="2:8" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="2:8" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>

--- a/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherPacote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597BD4F7-8E7E-44FE-97F8-9EF19090B7D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFE2848-5A5D-49F8-A03D-FE7D613D76A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>Autenticado no sistema</t>
-  </si>
-  <si>
     <t>Carro Encomendado</t>
   </si>
   <si>
@@ -115,7 +112,10 @@
     <t>8.2 Indica que há peças incompativeis</t>
   </si>
   <si>
-    <t>Exceção 2 [Não confirma] (passo 11)</t>
+    <t>Autenticado no sistema e escolheu pacote para comprar carro</t>
+  </si>
+  <si>
+    <t>Exceção 1 [Não confirma] (passo 11)</t>
   </si>
 </sst>
 </file>
@@ -370,6 +370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -391,7 +392,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -725,40 +725,40 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -769,141 +769,141 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="21"/>
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="20"/>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="20"/>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="14" t="s">
-        <v>26</v>
+      <c r="B20" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="6"/>
       <c r="D23" s="3"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="2:8" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:8" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
     </row>
